--- a/Dados/02_abr.xlsx
+++ b/Dados/02_abr.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -345,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -354,39 +367,47 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>aguas de lindoia</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" t="n">
-        <v>0</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 2</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>agudos</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
+          <t>municipio</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CASOS</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>óbitos</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>americana</t>
+          <t>aguas de lindoia</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -395,11 +416,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>aracatuba</t>
+          <t>agudos</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -408,11 +429,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>araraquara</t>
+          <t>americana</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -421,20 +442,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>aruja</t>
+          <t>aracatuba</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>assis</t>
+          <t>araraquara</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -447,20 +468,20 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>barueri</t>
+          <t>aruja</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>brodowski</t>
+          <t>assis</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -473,11 +494,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>cachoeira paulista</t>
+          <t>barueri</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -486,20 +507,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>caieiras</t>
+          <t>brodowski</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>cajamar</t>
+          <t>cachoeira paulista</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -512,11 +533,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>campinas</t>
+          <t>caieiras</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -525,63 +546,63 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>carapicuiba</t>
+          <t>cajamar</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>cotia</t>
+          <t>campinas</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>23</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>dracena</t>
+          <t>carapicuiba</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>embu das artes</t>
+          <t>cotia</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ferraz de vasconcelos</t>
+          <t>dracena</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -590,37 +611,37 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>franca</t>
+          <t>embu das artes</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>francisco morato</t>
+          <t>ferraz de vasconcelos</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>franco da rocha</t>
+          <t>franca</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -629,37 +650,37 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>guaruja</t>
+          <t>francisco morato</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>guarulhos</t>
+          <t>franco da rocha</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>hortolandia</t>
+          <t>guaruja</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -668,20 +689,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>indaiatuba</t>
+          <t>guarulhos</t>
         </is>
       </c>
       <c r="B25" t="n">
+        <v>35</v>
+      </c>
+      <c r="C25" t="n">
         <v>2</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>iracemapolis</t>
+          <t>hortolandia</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -694,7 +715,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>itanhaem</t>
+          <t>indaiatuba</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -707,11 +728,11 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>itapecerica da serra</t>
+          <t>iracemapolis</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -720,11 +741,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>itapevi</t>
+          <t>itanhaem</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -733,11 +754,11 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>itaquaquecetuba</t>
+          <t>itapecerica da serra</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -746,11 +767,11 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>itarare</t>
+          <t>itapevi</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -759,11 +780,11 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>itu</t>
+          <t>itaquaquecetuba</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -772,7 +793,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>itupeva</t>
+          <t>itarare</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -785,7 +806,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>jaguariuna</t>
+          <t>itu</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -798,11 +819,11 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>jandira</t>
+          <t>itupeva</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -811,7 +832,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>jau</t>
+          <t>jaguariuna</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -824,11 +845,11 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>jundiai</t>
+          <t>jandira</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -837,7 +858,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>lencois paulista</t>
+          <t>jau</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -850,11 +871,11 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>limeira</t>
+          <t>jundiai</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -863,7 +884,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>louveira</t>
+          <t>lencois paulista</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -876,11 +897,11 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>mairipora</t>
+          <t>limeira</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -889,11 +910,11 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>matao</t>
+          <t>louveira</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -902,11 +923,11 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>maua</t>
+          <t>mairipora</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -915,11 +936,11 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>mogi das cruzes</t>
+          <t>matao</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -928,11 +949,11 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>mogi guacu</t>
+          <t>maua</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -941,11 +962,11 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>nova odessa</t>
+          <t>mogi das cruzes</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -954,20 +975,20 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>osasco</t>
+          <t>mogi guacu</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>paulinia</t>
+          <t>nova odessa</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -980,24 +1001,24 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>penapolis</t>
+          <t>osasco</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>piracicaba</t>
+          <t>paulinia</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1006,7 +1027,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>pirajui</t>
+          <t>penapolis</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1019,11 +1040,11 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>poa</t>
+          <t>piracicaba</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1032,7 +1053,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>porto feliz</t>
+          <t>pirajui</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1045,11 +1066,11 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>praia grande</t>
+          <t>poa</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1058,11 +1079,11 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ribeirao pires</t>
+          <t>porto feliz</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1071,24 +1092,24 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ribeirao preto</t>
+          <t>praia grande</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>salto de pirapora</t>
+          <t>ribeirao pires</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1097,24 +1118,24 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>santa isabel</t>
+          <t>ribeirao preto</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>santana de parnaiba</t>
+          <t>salto de pirapora</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1123,24 +1144,24 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>santo andre</t>
+          <t>santa isabel</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>santos</t>
+          <t>santana de parnaiba</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -1149,7 +1170,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>sao bernardo do campo</t>
+          <t>santo andre</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1162,50 +1183,50 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>sao caetano do sul</t>
+          <t>santos</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>sao jose do rio pardo</t>
+          <t>sao bernardo do campo</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>sao jose do rio preto</t>
+          <t>sao caetano do sul</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>sao jose dos campos</t>
+          <t>sao jose do rio pardo</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -1214,24 +1235,24 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>sao paulo</t>
+          <t>sao jose do rio preto</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2815</v>
+        <v>7</v>
       </c>
       <c r="C67" t="n">
-        <v>164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>sao sebastiao</t>
+          <t>sao jose dos campos</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -1240,37 +1261,37 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>sao vicente</t>
+          <t>sao paulo</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>3</v>
+        <v>2815</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>sorocaba</t>
+          <t>sao sebastiao</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>3</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>suzano</t>
+          <t>sao vicente</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C71" t="n">
         <v>1</v>
@@ -1279,11 +1300,11 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>taboao da serra</t>
+          <t>sorocaba</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C72" t="n">
         <v>1</v>
@@ -1292,37 +1313,37 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>tatui</t>
+          <t>suzano</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>taubate</t>
+          <t>taboao da serra</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>valinhos</t>
+          <t>tatui</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -1331,24 +1352,24 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>vargem grande paulista</t>
+          <t>taubate</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>vinhedo</t>
+          <t>valinhos</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -1357,26 +1378,52 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>votorantim</t>
+          <t>vargem grande paulista</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
+          <t>vinhedo</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>votorantim</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>2</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
           <t>votuporanga</t>
         </is>
       </c>
-      <c r="B79" t="n">
-        <v>1</v>
-      </c>
-      <c r="C79" t="n">
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Dados/02_abr.xlsx
+++ b/Dados/02_abr.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -386,24 +386,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>municipio</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CASOS</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>óbitos</t>
-        </is>
+          <t>aguas de lindoia</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>aguas de lindoia</t>
+          <t>agudos</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -416,11 +412,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>agudos</t>
+          <t>americana</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -429,7 +425,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>americana</t>
+          <t>aracatuba</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -442,11 +438,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>aracatuba</t>
+          <t>araraquara</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -455,37 +451,37 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>araraquara</t>
+          <t>aruja</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>aruja</t>
+          <t>assis</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>assis</t>
+          <t>barueri</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -494,11 +490,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>barueri</t>
+          <t>brodowski</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -507,7 +503,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>brodowski</t>
+          <t>cachoeira paulista</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -520,50 +516,50 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>cachoeira paulista</t>
+          <t>caieiras</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>caieiras</t>
+          <t>cajamar</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>cajamar</t>
+          <t>campinas</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>campinas</t>
+          <t>carapicuiba</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -572,63 +568,63 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>carapicuiba</t>
+          <t>cotia</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>cotia</t>
+          <t>dracena</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dracena</t>
+          <t>embu das artes</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>embu das artes</t>
+          <t>ferraz de vasconcelos</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ferraz de vasconcelos</t>
+          <t>franca</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -637,37 +633,37 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>franca</t>
+          <t>francisco morato</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>francisco morato</t>
+          <t>franco da rocha</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>franco da rocha</t>
+          <t>guaruja</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -676,37 +672,37 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>guaruja</t>
+          <t>guarulhos</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>guarulhos</t>
+          <t>hortolandia</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>hortolandia</t>
+          <t>indaiatuba</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -715,11 +711,11 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>indaiatuba</t>
+          <t>iracemapolis</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -728,11 +724,11 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>iracemapolis</t>
+          <t>itanhaem</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -741,11 +737,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>itanhaem</t>
+          <t>itapecerica da serra</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -754,11 +750,11 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>itapecerica da serra</t>
+          <t>itapevi</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -767,11 +763,11 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>itapevi</t>
+          <t>itaquaquecetuba</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -780,11 +776,11 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>itaquaquecetuba</t>
+          <t>itarare</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -793,7 +789,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>itarare</t>
+          <t>itu</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -806,7 +802,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>itu</t>
+          <t>itupeva</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -819,7 +815,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>itupeva</t>
+          <t>jaguariuna</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -832,11 +828,11 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>jaguariuna</t>
+          <t>jandira</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -845,11 +841,11 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>jandira</t>
+          <t>jau</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -858,11 +854,11 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>jau</t>
+          <t>jundiai</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -871,11 +867,11 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>jundiai</t>
+          <t>lencois paulista</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -884,11 +880,11 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>lencois paulista</t>
+          <t>limeira</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -897,11 +893,11 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>limeira</t>
+          <t>louveira</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -910,11 +906,11 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>louveira</t>
+          <t>mairipora</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -923,11 +919,11 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>mairipora</t>
+          <t>matao</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -936,11 +932,11 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>matao</t>
+          <t>maua</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -949,11 +945,11 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>maua</t>
+          <t>mogi das cruzes</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -962,11 +958,11 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>mogi das cruzes</t>
+          <t>mogi guacu</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -975,7 +971,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>mogi guacu</t>
+          <t>nova odessa</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -988,33 +984,33 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>nova odessa</t>
+          <t>osasco</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>osasco</t>
+          <t>paulinia</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>paulinia</t>
+          <t>penapolis</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1027,11 +1023,11 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>penapolis</t>
+          <t>piracicaba</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1040,11 +1036,11 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>piracicaba</t>
+          <t>pirajui</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1053,11 +1049,11 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>pirajui</t>
+          <t>poa</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1066,11 +1062,11 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>poa</t>
+          <t>porto feliz</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1079,7 +1075,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>porto feliz</t>
+          <t>praia grande</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1092,11 +1088,11 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>praia grande</t>
+          <t>ribeirao pires</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1105,33 +1101,33 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ribeirao pires</t>
+          <t>ribeirao preto</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ribeirao preto</t>
+          <t>salto de pirapora</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>salto de pirapora</t>
+          <t>santa isabel</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1144,11 +1140,11 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>santa isabel</t>
+          <t>santana de parnaiba</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -1157,76 +1153,76 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>santana de parnaiba</t>
+          <t>santo andre</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>santo andre</t>
+          <t>santos</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>santos</t>
+          <t>sao bernardo do campo</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>sao bernardo do campo</t>
+          <t>sao caetano do sul</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>sao caetano do sul</t>
+          <t>sao jose do rio pardo</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>sao jose do rio pardo</t>
+          <t>sao jose do rio preto</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -1235,11 +1231,11 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>sao jose do rio preto</t>
+          <t>sao jose dos campos</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -1248,46 +1244,46 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>sao jose dos campos</t>
+          <t>sao paulo</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>14</v>
+        <v>2815</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>sao paulo</t>
+          <t>sao sebastiao</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2815</v>
+        <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>sao sebastiao</t>
+          <t>sao vicente</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>3</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>sao vicente</t>
+          <t>sorocaba</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1300,11 +1296,11 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>sorocaba</t>
+          <t>suzano</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C72" t="n">
         <v>1</v>
@@ -1313,11 +1309,11 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>suzano</t>
+          <t>taboao da serra</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C73" t="n">
         <v>1</v>
@@ -1326,20 +1322,20 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>taboao da serra</t>
+          <t>tatui</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>tatui</t>
+          <t>taubate</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1352,11 +1348,11 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>taubate</t>
+          <t>valinhos</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -1365,37 +1361,37 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>valinhos</t>
+          <t>vargem grande paulista</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>3</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>vargem grande paulista</t>
+          <t>vinhedo</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>vinhedo</t>
+          <t>votorantim</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -1404,26 +1400,13 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>votorantim</t>
+          <t>votuporanga</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>votuporanga</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>1</v>
-      </c>
-      <c r="C81" t="n">
         <v>0</v>
       </c>
     </row>
